--- a/output/StructureDefinition-CorePacienteCl.xlsx
+++ b/output/StructureDefinition-CorePacienteCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-13T12:21:03-03:00</t>
+    <t>2021-09-13T12:43:20-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
